--- a/HomeDepotInventory.xlsx
+++ b/HomeDepotInventory.xlsx
@@ -2008,7 +2008,7 @@
         <v>290</v>
       </c>
       <c r="D2">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="I2" t="s">
         <v>292</v>
@@ -2078,7 +2078,7 @@
         <v>290</v>
       </c>
       <c r="D4">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I4" t="s">
         <v>294</v>
@@ -2113,7 +2113,7 @@
         <v>290</v>
       </c>
       <c r="D5">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="I5" t="s">
         <v>295</v>
@@ -2148,7 +2148,7 @@
         <v>290</v>
       </c>
       <c r="D6">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="I6" t="s">
         <v>296</v>
@@ -2215,7 +2215,7 @@
         <v>290</v>
       </c>
       <c r="D8">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="I8" t="s">
         <v>297</v>
@@ -2285,7 +2285,7 @@
         <v>290</v>
       </c>
       <c r="D10">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I10" t="s">
         <v>299</v>
@@ -2317,10 +2317,10 @@
         <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I11" t="s">
         <v>300</v>
@@ -2355,7 +2355,7 @@
         <v>290</v>
       </c>
       <c r="D12">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="I12" t="s">
         <v>301</v>
@@ -2390,7 +2390,7 @@
         <v>290</v>
       </c>
       <c r="D13">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="W13">
         <v>303707203</v>
@@ -2553,10 +2553,10 @@
         <v>62</v>
       </c>
       <c r="C18" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D18">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I18" t="s">
         <v>304</v>
@@ -2696,7 +2696,7 @@
         <v>290</v>
       </c>
       <c r="D22">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I22" t="s">
         <v>308</v>
@@ -2798,10 +2798,10 @@
         <v>69</v>
       </c>
       <c r="C25" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D25">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I25" t="s">
         <v>311</v>
@@ -2836,7 +2836,7 @@
         <v>290</v>
       </c>
       <c r="D26">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I26" t="s">
         <v>312</v>
@@ -2903,10 +2903,10 @@
         <v>72</v>
       </c>
       <c r="C28" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D28">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I28" t="s">
         <v>314</v>
@@ -2973,7 +2973,7 @@
         <v>290</v>
       </c>
       <c r="D30">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="W30">
         <v>303705513</v>
@@ -3005,7 +3005,7 @@
         <v>290</v>
       </c>
       <c r="D31">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I31" t="s">
         <v>315</v>
@@ -3040,7 +3040,7 @@
         <v>290</v>
       </c>
       <c r="D32">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I32" t="s">
         <v>316</v>
@@ -3075,7 +3075,7 @@
         <v>290</v>
       </c>
       <c r="D33">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I33" t="s">
         <v>317</v>
@@ -3110,7 +3110,7 @@
         <v>290</v>
       </c>
       <c r="D34">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I34" t="s">
         <v>318</v>
@@ -3145,7 +3145,7 @@
         <v>290</v>
       </c>
       <c r="D35">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="I35" t="s">
         <v>319</v>
@@ -3215,7 +3215,7 @@
         <v>290</v>
       </c>
       <c r="D37">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="W37">
         <v>303705463</v>
@@ -3247,7 +3247,7 @@
         <v>290</v>
       </c>
       <c r="D38">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="W38">
         <v>303705217</v>
@@ -3314,7 +3314,7 @@
         <v>290</v>
       </c>
       <c r="D40">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="W40">
         <v>313029610</v>
@@ -3346,7 +3346,7 @@
         <v>290</v>
       </c>
       <c r="D41">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="W41">
         <v>313029622</v>
@@ -3378,7 +3378,7 @@
         <v>290</v>
       </c>
       <c r="D42">
-        <v>279</v>
+        <v>314</v>
       </c>
       <c r="W42">
         <v>313029628</v>
@@ -3410,7 +3410,7 @@
         <v>290</v>
       </c>
       <c r="D43">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="I43" t="s">
         <v>322</v>
@@ -3445,7 +3445,7 @@
         <v>290</v>
       </c>
       <c r="D44">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="I44" t="s">
         <v>323</v>
@@ -3480,7 +3480,7 @@
         <v>290</v>
       </c>
       <c r="D45">
-        <v>212</v>
+        <v>264</v>
       </c>
       <c r="I45" t="s">
         <v>324</v>
@@ -3515,7 +3515,7 @@
         <v>290</v>
       </c>
       <c r="D46">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="I46" t="s">
         <v>325</v>
@@ -3550,7 +3550,7 @@
         <v>290</v>
       </c>
       <c r="D47">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="I47" t="s">
         <v>326</v>
@@ -3585,7 +3585,7 @@
         <v>290</v>
       </c>
       <c r="D48">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="I48" t="s">
         <v>327</v>
@@ -3620,7 +3620,7 @@
         <v>290</v>
       </c>
       <c r="D49">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="W49">
         <v>303705453</v>
@@ -3687,7 +3687,7 @@
         <v>290</v>
       </c>
       <c r="D51">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I51" t="s">
         <v>329</v>
@@ -3722,7 +3722,7 @@
         <v>290</v>
       </c>
       <c r="D52">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I52" t="s">
         <v>330</v>
@@ -3792,7 +3792,7 @@
         <v>290</v>
       </c>
       <c r="D54">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="W54">
         <v>303705581</v>
@@ -3952,7 +3952,7 @@
         <v>290</v>
       </c>
       <c r="D59">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I59" t="s">
         <v>332</v>
@@ -3987,7 +3987,7 @@
         <v>290</v>
       </c>
       <c r="D60">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="I60" t="s">
         <v>333</v>
@@ -4162,7 +4162,7 @@
         <v>290</v>
       </c>
       <c r="D65">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I65" t="s">
         <v>338</v>
@@ -4264,10 +4264,10 @@
         <v>112</v>
       </c>
       <c r="C68" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D68">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="I68" t="s">
         <v>341</v>
@@ -4407,7 +4407,7 @@
         <v>290</v>
       </c>
       <c r="D72">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I72" t="s">
         <v>345</v>
@@ -4509,7 +4509,7 @@
         <v>290</v>
       </c>
       <c r="D75">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="W75">
         <v>302772070</v>
@@ -4538,10 +4538,10 @@
         <v>120</v>
       </c>
       <c r="C76" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D76">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="W76">
         <v>302772075</v>
@@ -4605,7 +4605,7 @@
         <v>290</v>
       </c>
       <c r="D78">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="W78">
         <v>302772073</v>
@@ -4669,7 +4669,7 @@
         <v>290</v>
       </c>
       <c r="D80">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="W80">
         <v>302772071</v>
@@ -4908,7 +4908,7 @@
         <v>290</v>
       </c>
       <c r="D87">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="I87" t="s">
         <v>352</v>
@@ -4943,7 +4943,7 @@
         <v>290</v>
       </c>
       <c r="D88">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="I88" t="s">
         <v>353</v>
@@ -5045,7 +5045,7 @@
         <v>290</v>
       </c>
       <c r="D91">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W91">
         <v>302507440</v>
@@ -5077,7 +5077,7 @@
         <v>290</v>
       </c>
       <c r="D92">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="W92">
         <v>303699060</v>
@@ -5144,7 +5144,7 @@
         <v>290</v>
       </c>
       <c r="D94">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="I94" t="s">
         <v>356</v>
@@ -5214,7 +5214,7 @@
         <v>290</v>
       </c>
       <c r="D96">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I96" t="s">
         <v>358</v>
@@ -5246,10 +5246,10 @@
         <v>141</v>
       </c>
       <c r="C97" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D97">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W97">
         <v>307976273</v>
@@ -5456,7 +5456,7 @@
         <v>290</v>
       </c>
       <c r="D103">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I103" t="s">
         <v>364</v>
@@ -5526,7 +5526,7 @@
         <v>290</v>
       </c>
       <c r="D105">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="I105" t="s">
         <v>366</v>
@@ -5561,7 +5561,7 @@
         <v>290</v>
       </c>
       <c r="D106">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="I106" t="s">
         <v>367</v>
@@ -5596,7 +5596,7 @@
         <v>290</v>
       </c>
       <c r="D107">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I107" t="s">
         <v>368</v>
@@ -5631,7 +5631,7 @@
         <v>290</v>
       </c>
       <c r="D108">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="I108" t="s">
         <v>369</v>
@@ -5666,7 +5666,7 @@
         <v>290</v>
       </c>
       <c r="D109">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I109" t="s">
         <v>370</v>
@@ -5701,7 +5701,7 @@
         <v>290</v>
       </c>
       <c r="D110">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I110" t="s">
         <v>371</v>
@@ -5771,7 +5771,7 @@
         <v>290</v>
       </c>
       <c r="D112">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I112" t="s">
         <v>373</v>
@@ -5806,7 +5806,7 @@
         <v>290</v>
       </c>
       <c r="D113">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="I113" t="s">
         <v>374</v>
@@ -5841,7 +5841,7 @@
         <v>290</v>
       </c>
       <c r="D114">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I114" t="s">
         <v>375</v>
@@ -5905,10 +5905,10 @@
         <v>160</v>
       </c>
       <c r="C116" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D116">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I116" t="s">
         <v>295</v>
@@ -5943,7 +5943,7 @@
         <v>290</v>
       </c>
       <c r="D117">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I117" t="s">
         <v>376</v>
@@ -6013,7 +6013,7 @@
         <v>290</v>
       </c>
       <c r="D119">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I119" t="s">
         <v>378</v>
@@ -6048,7 +6048,7 @@
         <v>290</v>
       </c>
       <c r="D120">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I120" t="s">
         <v>379</v>
@@ -6118,7 +6118,7 @@
         <v>290</v>
       </c>
       <c r="D122">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I122" t="s">
         <v>381</v>
@@ -6188,7 +6188,7 @@
         <v>290</v>
       </c>
       <c r="D124">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I124" t="s">
         <v>383</v>
@@ -6223,7 +6223,7 @@
         <v>290</v>
       </c>
       <c r="D125">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="I125" t="s">
         <v>384</v>
@@ -6258,7 +6258,7 @@
         <v>290</v>
       </c>
       <c r="D126">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="I126" t="s">
         <v>385</v>
@@ -6293,7 +6293,7 @@
         <v>290</v>
       </c>
       <c r="D127">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I127" t="s">
         <v>386</v>
@@ -6363,7 +6363,7 @@
         <v>290</v>
       </c>
       <c r="D129">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I129" t="s">
         <v>388</v>
@@ -6538,7 +6538,7 @@
         <v>290</v>
       </c>
       <c r="D134">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I134" t="s">
         <v>393</v>
@@ -6608,7 +6608,7 @@
         <v>290</v>
       </c>
       <c r="D136">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I136" t="s">
         <v>395</v>
@@ -6678,7 +6678,7 @@
         <v>290</v>
       </c>
       <c r="D138">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="I138" t="s">
         <v>397</v>
@@ -6748,7 +6748,7 @@
         <v>290</v>
       </c>
       <c r="D140">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="I140" t="s">
         <v>399</v>
@@ -6783,7 +6783,7 @@
         <v>290</v>
       </c>
       <c r="D141">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I141" t="s">
         <v>400</v>
@@ -6818,7 +6818,7 @@
         <v>290</v>
       </c>
       <c r="D142">
-        <v>86</v>
+        <v>141</v>
       </c>
       <c r="I142" t="s">
         <v>401</v>
@@ -6920,10 +6920,10 @@
         <v>189</v>
       </c>
       <c r="C145" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D145">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I145" t="s">
         <v>404</v>
@@ -7273,7 +7273,7 @@
         <v>290</v>
       </c>
       <c r="D155">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I155" t="s">
         <v>414</v>
@@ -7305,10 +7305,10 @@
         <v>200</v>
       </c>
       <c r="C156" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D156">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W156">
         <v>306580798</v>
@@ -7375,7 +7375,7 @@
         <v>290</v>
       </c>
       <c r="D158">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="W158">
         <v>306580789</v>
@@ -7477,7 +7477,7 @@
         <v>290</v>
       </c>
       <c r="D161">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I161" t="s">
         <v>418</v>
@@ -7512,7 +7512,7 @@
         <v>290</v>
       </c>
       <c r="D162">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="I162" t="s">
         <v>419</v>
@@ -7547,7 +7547,7 @@
         <v>290</v>
       </c>
       <c r="D163">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="W163">
         <v>313035486</v>
@@ -7579,7 +7579,7 @@
         <v>290</v>
       </c>
       <c r="D164">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W164">
         <v>313035548</v>
@@ -7611,7 +7611,7 @@
         <v>290</v>
       </c>
       <c r="D165">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I165" t="s">
         <v>420</v>
@@ -7646,7 +7646,7 @@
         <v>290</v>
       </c>
       <c r="D166">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="I166" t="s">
         <v>421</v>
@@ -7681,7 +7681,7 @@
         <v>290</v>
       </c>
       <c r="D167">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I167" t="s">
         <v>422</v>
@@ -7786,7 +7786,7 @@
         <v>290</v>
       </c>
       <c r="D170">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="I170" t="s">
         <v>425</v>
@@ -7821,7 +7821,7 @@
         <v>290</v>
       </c>
       <c r="D171">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I171" t="s">
         <v>426</v>
@@ -7853,10 +7853,10 @@
         <v>216</v>
       </c>
       <c r="C172" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D172">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W172">
         <v>302192857</v>
@@ -7920,10 +7920,10 @@
         <v>218</v>
       </c>
       <c r="C174" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D174">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I174" t="s">
         <v>428</v>
@@ -7958,7 +7958,7 @@
         <v>290</v>
       </c>
       <c r="D175">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I175" t="s">
         <v>429</v>
@@ -7993,7 +7993,7 @@
         <v>290</v>
       </c>
       <c r="D176">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="W176">
         <v>303705281</v>
@@ -8060,7 +8060,7 @@
         <v>290</v>
       </c>
       <c r="D178">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="I178" t="s">
         <v>431</v>
@@ -8095,7 +8095,7 @@
         <v>290</v>
       </c>
       <c r="D179">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I179" t="s">
         <v>432</v>
@@ -8165,7 +8165,7 @@
         <v>290</v>
       </c>
       <c r="D181">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I181" t="s">
         <v>433</v>
@@ -8340,7 +8340,7 @@
         <v>290</v>
       </c>
       <c r="D186">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I186" t="s">
         <v>436</v>
@@ -8617,10 +8617,10 @@
         <v>238</v>
       </c>
       <c r="C194" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D194">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I194" t="s">
         <v>441</v>
@@ -8725,7 +8725,7 @@
         <v>290</v>
       </c>
       <c r="D197">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I197" t="s">
         <v>446</v>
@@ -8830,7 +8830,7 @@
         <v>290</v>
       </c>
       <c r="D200">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I200" t="s">
         <v>449</v>
@@ -8865,7 +8865,7 @@
         <v>290</v>
       </c>
       <c r="D201">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="I201" t="s">
         <v>450</v>
@@ -9390,7 +9390,7 @@
         <v>290</v>
       </c>
       <c r="D216">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="I216" t="s">
         <v>465</v>
@@ -9460,7 +9460,7 @@
         <v>290</v>
       </c>
       <c r="D218">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I218" t="s">
         <v>467</v>
@@ -9565,7 +9565,7 @@
         <v>290</v>
       </c>
       <c r="D221">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I221" t="s">
         <v>470</v>
@@ -9670,7 +9670,7 @@
         <v>290</v>
       </c>
       <c r="D224">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I224" t="s">
         <v>471</v>
@@ -9702,10 +9702,10 @@
         <v>269</v>
       </c>
       <c r="C225" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D225">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I225" t="s">
         <v>473</v>
@@ -9880,7 +9880,7 @@
         <v>290</v>
       </c>
       <c r="D230">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="I230" t="s">
         <v>478</v>
@@ -9947,10 +9947,10 @@
         <v>276</v>
       </c>
       <c r="C232" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D232">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W232">
         <v>303705470</v>
@@ -10122,7 +10122,7 @@
         <v>290</v>
       </c>
       <c r="D237">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="I237" t="s">
         <v>484</v>
@@ -10227,7 +10227,7 @@
         <v>290</v>
       </c>
       <c r="D240">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I240" t="s">
         <v>487</v>
@@ -10332,7 +10332,7 @@
         <v>290</v>
       </c>
       <c r="D243">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I243" t="s">
         <v>490</v>
@@ -10367,7 +10367,7 @@
         <v>290</v>
       </c>
       <c r="D244">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="W244">
         <v>303705486</v>
@@ -10396,10 +10396,10 @@
         <v>289</v>
       </c>
       <c r="C245" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D245">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="W245">
         <v>303705500</v>
